--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Acvrl1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H2">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N2">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O2">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P2">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q2">
-        <v>16.38609824651376</v>
+        <v>19.09053419654267</v>
       </c>
       <c r="R2">
-        <v>16.38609824651376</v>
+        <v>171.814807768884</v>
       </c>
       <c r="S2">
-        <v>0.0141557448440604</v>
+        <v>0.01284035978878596</v>
       </c>
       <c r="T2">
-        <v>0.0141557448440604</v>
+        <v>0.01284035978878596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H3">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N3">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O3">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P3">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q3">
-        <v>13.91671679482406</v>
+        <v>14.87719390130133</v>
       </c>
       <c r="R3">
-        <v>13.91671679482406</v>
+        <v>133.894745111712</v>
       </c>
       <c r="S3">
-        <v>0.01202247716636831</v>
+        <v>0.01000645243205593</v>
       </c>
       <c r="T3">
-        <v>0.01202247716636831</v>
+        <v>0.01000645243205594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H4">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N4">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O4">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P4">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q4">
-        <v>6.576264523489378</v>
+        <v>7.083645887823334</v>
       </c>
       <c r="R4">
-        <v>6.576264523489378</v>
+        <v>63.75281299041001</v>
       </c>
       <c r="S4">
-        <v>0.005681152475780373</v>
+        <v>0.004764484894952712</v>
       </c>
       <c r="T4">
-        <v>0.005681152475780373</v>
+        <v>0.004764484894952713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H5">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N5">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O5">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P5">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q5">
-        <v>9.650007765057671</v>
+        <v>10.58615774419778</v>
       </c>
       <c r="R5">
-        <v>9.650007765057671</v>
+        <v>95.27541969777999</v>
       </c>
       <c r="S5">
-        <v>0.008336520726916857</v>
+        <v>0.007120286568039537</v>
       </c>
       <c r="T5">
-        <v>0.008336520726916857</v>
+        <v>0.00712028656803954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H6">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N6">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O6">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P6">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q6">
-        <v>1.903395784989986</v>
+        <v>2.056768331573667</v>
       </c>
       <c r="R6">
-        <v>1.903395784989986</v>
+        <v>18.510914984163</v>
       </c>
       <c r="S6">
-        <v>0.001644319755943779</v>
+        <v>0.001383389543094595</v>
       </c>
       <c r="T6">
-        <v>0.001644319755943779</v>
+        <v>0.001383389543094595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H7">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N7">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O7">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P7">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q7">
-        <v>1.601543350702276</v>
+        <v>2.006582899164778</v>
       </c>
       <c r="R7">
-        <v>1.601543350702276</v>
+        <v>18.059246092483</v>
       </c>
       <c r="S7">
-        <v>0.001383553222260604</v>
+        <v>0.001349634646471396</v>
       </c>
       <c r="T7">
-        <v>0.001383553222260604</v>
+        <v>0.001349634646471396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H8">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N8">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O8">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P8">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q8">
-        <v>199.3386299891361</v>
+        <v>223.4453702996294</v>
       </c>
       <c r="R8">
-        <v>199.3386299891361</v>
+        <v>2011.008332696664</v>
       </c>
       <c r="S8">
-        <v>0.172206143356374</v>
+        <v>0.1502901342753076</v>
       </c>
       <c r="T8">
-        <v>0.172206143356374</v>
+        <v>0.1502901342753077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H9">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N9">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O9">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P9">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q9">
-        <v>169.2983416852908</v>
+        <v>174.1302818491947</v>
       </c>
       <c r="R9">
-        <v>169.2983416852908</v>
+        <v>1567.172536642752</v>
       </c>
       <c r="S9">
-        <v>0.1462547149031899</v>
+        <v>0.1171206340297848</v>
       </c>
       <c r="T9">
-        <v>0.1462547149031899</v>
+        <v>0.1171206340297848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H10">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N10">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O10">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P10">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q10">
-        <v>80.00095818035476</v>
+        <v>82.91061225320668</v>
       </c>
       <c r="R10">
-        <v>80.00095818035476</v>
+        <v>746.1955102788601</v>
       </c>
       <c r="S10">
-        <v>0.06911182480688401</v>
+        <v>0.05576596656119244</v>
       </c>
       <c r="T10">
-        <v>0.06911182480688401</v>
+        <v>0.05576596656119247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H11">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N11">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O11">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P11">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q11">
-        <v>117.3933720115698</v>
+        <v>123.9058013175422</v>
       </c>
       <c r="R11">
-        <v>117.3933720115698</v>
+        <v>1115.15221185788</v>
       </c>
       <c r="S11">
-        <v>0.101414662330198</v>
+        <v>0.08333947350321939</v>
       </c>
       <c r="T11">
-        <v>0.101414662330198</v>
+        <v>0.08333947350321944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H12">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N12">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O12">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P12">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q12">
-        <v>23.15501240130329</v>
+        <v>24.07346786305533</v>
       </c>
       <c r="R12">
-        <v>23.15501240130329</v>
+        <v>216.661210767498</v>
       </c>
       <c r="S12">
-        <v>0.02000332492108913</v>
+        <v>0.01619189832735993</v>
       </c>
       <c r="T12">
-        <v>0.02000332492108913</v>
+        <v>0.01619189832735994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H13">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N13">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O13">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P13">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q13">
-        <v>19.48294539642007</v>
+        <v>23.48607191002422</v>
       </c>
       <c r="R13">
-        <v>19.48294539642007</v>
+        <v>211.374647190218</v>
       </c>
       <c r="S13">
-        <v>0.01683107227195838</v>
+        <v>0.01579681376357846</v>
       </c>
       <c r="T13">
-        <v>0.01683107227195838</v>
+        <v>0.01579681376357846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H14">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N14">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O14">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P14">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q14">
-        <v>11.67171895251551</v>
+        <v>4.911882665750666</v>
       </c>
       <c r="R14">
-        <v>11.67171895251551</v>
+        <v>44.206943991756</v>
       </c>
       <c r="S14">
-        <v>0.0100830516757426</v>
+        <v>0.003303749388006219</v>
       </c>
       <c r="T14">
-        <v>0.0100830516757426</v>
+        <v>0.003303749388006221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H15">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N15">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O15">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P15">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q15">
-        <v>9.912793437906871</v>
+        <v>3.827814878645333</v>
       </c>
       <c r="R15">
-        <v>9.912793437906871</v>
+        <v>34.450333907808</v>
       </c>
       <c r="S15">
-        <v>0.008563537975169927</v>
+        <v>0.002574601618826119</v>
       </c>
       <c r="T15">
-        <v>0.008563537975169927</v>
+        <v>0.00257460161882612</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H16">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N16">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O16">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P16">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q16">
-        <v>4.684233557057837</v>
+        <v>1.822580609243333</v>
       </c>
       <c r="R16">
-        <v>4.684233557057837</v>
+        <v>16.40322548319</v>
       </c>
       <c r="S16">
-        <v>0.004046650644109482</v>
+        <v>0.001225874065430152</v>
       </c>
       <c r="T16">
-        <v>0.004046650644109482</v>
+        <v>0.001225874065430153</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H17">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N17">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O17">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P17">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q17">
-        <v>6.873642329546547</v>
+        <v>2.723756401224444</v>
       </c>
       <c r="R17">
-        <v>6.873642329546547</v>
+        <v>24.51380761102</v>
       </c>
       <c r="S17">
-        <v>0.005938053434233211</v>
+        <v>0.001832008041716536</v>
       </c>
       <c r="T17">
-        <v>0.005938053434233211</v>
+        <v>0.001832008041716538</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H18">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N18">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O18">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P18">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q18">
-        <v>1.355777337813309</v>
+        <v>0.5291944484796666</v>
       </c>
       <c r="R18">
-        <v>1.355777337813309</v>
+        <v>4.762750036317</v>
       </c>
       <c r="S18">
-        <v>0.001171239044873169</v>
+        <v>0.0003559380291169468</v>
       </c>
       <c r="T18">
-        <v>0.001171239044873169</v>
+        <v>0.0003559380291169471</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H19">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N19">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O19">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P19">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q19">
-        <v>1.140769669414373</v>
+        <v>0.5162820305774444</v>
       </c>
       <c r="R19">
-        <v>1.140769669414373</v>
+        <v>4.646538275197</v>
       </c>
       <c r="S19">
-        <v>0.000985496615675954</v>
+        <v>0.0003472530918647603</v>
       </c>
       <c r="T19">
-        <v>0.000985496615675954</v>
+        <v>0.0003472530918647605</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H20">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N20">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O20">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P20">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q20">
-        <v>151.7028061203518</v>
+        <v>13.05405422496</v>
       </c>
       <c r="R20">
-        <v>151.7028061203518</v>
+        <v>117.48648802464</v>
       </c>
       <c r="S20">
-        <v>0.1310541523223535</v>
+        <v>0.008780202336148558</v>
       </c>
       <c r="T20">
-        <v>0.1310541523223535</v>
+        <v>0.008780202336148559</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H21">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N21">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O21">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P21">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q21">
-        <v>128.8412261415685</v>
+        <v>10.17298384128</v>
       </c>
       <c r="R21">
-        <v>128.8412261415685</v>
+        <v>91.55685457151999</v>
       </c>
       <c r="S21">
-        <v>0.1113043199923424</v>
+        <v>0.006842384361941922</v>
       </c>
       <c r="T21">
-        <v>0.1113043199923424</v>
+        <v>0.006842384361941923</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H22">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N22">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O22">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P22">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q22">
-        <v>60.88318079108981</v>
+        <v>4.8437773704</v>
       </c>
       <c r="R22">
-        <v>60.88318079108981</v>
+        <v>43.5939963336</v>
       </c>
       <c r="S22">
-        <v>0.05259621659822707</v>
+        <v>0.003257941529157384</v>
       </c>
       <c r="T22">
-        <v>0.05259621659822707</v>
+        <v>0.003257941529157385</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H23">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N23">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O23">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P23">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q23">
-        <v>89.33995360084538</v>
+        <v>7.2387852432</v>
       </c>
       <c r="R23">
-        <v>89.33995360084538</v>
+        <v>65.14906718879999</v>
       </c>
       <c r="S23">
-        <v>0.07717966586846438</v>
+        <v>0.004868832165695795</v>
       </c>
       <c r="T23">
-        <v>0.07717966586846438</v>
+        <v>0.004868832165695797</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H24">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N24">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O24">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P24">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q24">
-        <v>17.62167401883265</v>
+        <v>1.40641246872</v>
       </c>
       <c r="R24">
-        <v>17.62167401883265</v>
+        <v>12.65771221848</v>
       </c>
       <c r="S24">
-        <v>0.01522314326345961</v>
+        <v>0.0009459579246907594</v>
       </c>
       <c r="T24">
-        <v>0.01522314326345961</v>
+        <v>0.0009459579246907599</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.73368</v>
+      </c>
+      <c r="H25">
+        <v>2.20104</v>
+      </c>
+      <c r="I25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.870155666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.610467</v>
+      </c>
+      <c r="O25">
+        <v>0.036024256573886</v>
+      </c>
+      <c r="P25">
+        <v>0.03602425657388601</v>
+      </c>
+      <c r="Q25">
+        <v>1.37209580952</v>
+      </c>
+      <c r="R25">
+        <v>12.34886228568</v>
+      </c>
+      <c r="S25">
+        <v>0.000922876420195356</v>
+      </c>
+      <c r="T25">
+        <v>0.0009228764201953564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.253455</v>
+      </c>
+      <c r="I26">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J26">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.792572</v>
+      </c>
+      <c r="N26">
+        <v>53.377716</v>
+      </c>
+      <c r="O26">
+        <v>0.3427330624192282</v>
+      </c>
+      <c r="P26">
+        <v>0.3427330624192283</v>
+      </c>
+      <c r="Q26">
+        <v>1.50320544542</v>
+      </c>
+      <c r="R26">
+        <v>13.52884900878</v>
+      </c>
+      <c r="S26">
+        <v>0.001011061217928131</v>
+      </c>
+      <c r="T26">
+        <v>0.001011061217928131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.253455</v>
+      </c>
+      <c r="I27">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J27">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.865696</v>
+      </c>
+      <c r="N27">
+        <v>41.597088</v>
+      </c>
+      <c r="O27">
+        <v>0.2670908091676708</v>
+      </c>
+      <c r="P27">
+        <v>0.2670908091676709</v>
+      </c>
+      <c r="Q27">
+        <v>1.17144332656</v>
+      </c>
+      <c r="R27">
+        <v>10.54298993904</v>
+      </c>
+      <c r="S27">
+        <v>0.0007879168613273678</v>
+      </c>
+      <c r="T27">
+        <v>0.0007879168613273681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.253455</v>
+      </c>
+      <c r="I28">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J28">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>6.60203</v>
+      </c>
+      <c r="N28">
+        <v>19.80609</v>
+      </c>
+      <c r="O28">
+        <v>0.1271729551007925</v>
+      </c>
+      <c r="P28">
+        <v>0.1271729551007925</v>
+      </c>
+      <c r="Q28">
+        <v>0.5577725045499999</v>
+      </c>
+      <c r="R28">
+        <v>5.01995254095</v>
+      </c>
+      <c r="S28">
+        <v>0.000375159729161026</v>
+      </c>
+      <c r="T28">
+        <v>0.0003751597291610262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.253455</v>
+      </c>
+      <c r="I29">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J29">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.866406666666666</v>
+      </c>
+      <c r="N29">
+        <v>29.59922</v>
+      </c>
+      <c r="O29">
+        <v>0.190053679251103</v>
+      </c>
+      <c r="P29">
+        <v>0.190053679251103</v>
+      </c>
+      <c r="Q29">
+        <v>0.8335633672333332</v>
+      </c>
+      <c r="R29">
+        <v>7.502070305099999</v>
+      </c>
+      <c r="S29">
+        <v>0.0005606576239216132</v>
+      </c>
+      <c r="T29">
+        <v>0.0005606576239216135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.253455</v>
+      </c>
+      <c r="I30">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J30">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.916929</v>
+      </c>
+      <c r="N30">
+        <v>5.750787</v>
+      </c>
+      <c r="O30">
+        <v>0.03692523748731935</v>
+      </c>
+      <c r="P30">
+        <v>0.03692523748731937</v>
+      </c>
+      <c r="Q30">
+        <v>0.161951746565</v>
+      </c>
+      <c r="R30">
+        <v>1.457565719085</v>
+      </c>
+      <c r="S30">
+        <v>0.0001089293087824376</v>
+      </c>
+      <c r="T30">
+        <v>0.0001089293087824376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.253455</v>
+      </c>
+      <c r="I31">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J31">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.870155666666667</v>
+      </c>
+      <c r="N31">
+        <v>5.610467</v>
+      </c>
+      <c r="O31">
+        <v>0.036024256573886</v>
+      </c>
+      <c r="P31">
+        <v>0.03602425657388601</v>
+      </c>
+      <c r="Q31">
+        <v>0.1580001014983333</v>
+      </c>
+      <c r="R31">
+        <v>1.422000913485</v>
+      </c>
+      <c r="S31">
+        <v>0.0001062714185478746</v>
+      </c>
+      <c r="T31">
+        <v>0.0001062714185478746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H32">
+        <v>41.740472</v>
+      </c>
+      <c r="I32">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J32">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>17.792572</v>
+      </c>
+      <c r="N32">
+        <v>53.377716</v>
+      </c>
+      <c r="O32">
+        <v>0.3427330624192282</v>
+      </c>
+      <c r="P32">
+        <v>0.3427330624192283</v>
+      </c>
+      <c r="Q32">
+        <v>247.5567844579947</v>
+      </c>
+      <c r="R32">
+        <v>2228.011060121952</v>
+      </c>
+      <c r="S32">
+        <v>0.1665075554130518</v>
+      </c>
+      <c r="T32">
+        <v>0.1665075554130518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H33">
+        <v>41.740472</v>
+      </c>
+      <c r="I33">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J33">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.865696</v>
+      </c>
+      <c r="N33">
+        <v>41.597088</v>
+      </c>
+      <c r="O33">
+        <v>0.2670908091676708</v>
+      </c>
+      <c r="P33">
+        <v>0.2670908091676709</v>
+      </c>
+      <c r="Q33">
+        <v>192.9202318828373</v>
+      </c>
+      <c r="R33">
+        <v>1736.282086945536</v>
+      </c>
+      <c r="S33">
+        <v>0.1297588198637347</v>
+      </c>
+      <c r="T33">
+        <v>0.1297588198637347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H34">
+        <v>41.740472</v>
+      </c>
+      <c r="I34">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J34">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>6.60203</v>
+      </c>
+      <c r="N34">
+        <v>19.80609</v>
+      </c>
+      <c r="O34">
+        <v>0.1271729551007925</v>
+      </c>
+      <c r="P34">
+        <v>0.1271729551007925</v>
+      </c>
+      <c r="Q34">
+        <v>91.85728278605333</v>
+      </c>
+      <c r="R34">
+        <v>826.71554507448</v>
+      </c>
+      <c r="S34">
+        <v>0.06178352832089874</v>
+      </c>
+      <c r="T34">
+        <v>0.06178352832089876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="H25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="I25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="J25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.5688961408064</v>
-      </c>
-      <c r="N25">
-        <v>1.5688961408064</v>
-      </c>
-      <c r="O25">
-        <v>0.03200908389421987</v>
-      </c>
-      <c r="P25">
-        <v>0.03200908389421987</v>
-      </c>
-      <c r="Q25">
-        <v>14.82711849824389</v>
-      </c>
-      <c r="R25">
-        <v>14.82711849824389</v>
-      </c>
-      <c r="S25">
-        <v>0.01280896178432493</v>
-      </c>
-      <c r="T25">
-        <v>0.01280896178432493</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H35">
+        <v>41.740472</v>
+      </c>
+      <c r="I35">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J35">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.866406666666666</v>
+      </c>
+      <c r="N35">
+        <v>29.59922</v>
+      </c>
+      <c r="O35">
+        <v>0.190053679251103</v>
+      </c>
+      <c r="P35">
+        <v>0.190053679251103</v>
+      </c>
+      <c r="Q35">
+        <v>137.2761570702044</v>
+      </c>
+      <c r="R35">
+        <v>1235.48541363184</v>
+      </c>
+      <c r="S35">
+        <v>0.09233242134851009</v>
+      </c>
+      <c r="T35">
+        <v>0.09233242134851014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H36">
+        <v>41.740472</v>
+      </c>
+      <c r="I36">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J36">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.916929</v>
+      </c>
+      <c r="N36">
+        <v>5.750787</v>
+      </c>
+      <c r="O36">
+        <v>0.03692523748731935</v>
+      </c>
+      <c r="P36">
+        <v>0.03692523748731937</v>
+      </c>
+      <c r="Q36">
+        <v>26.67117375016267</v>
+      </c>
+      <c r="R36">
+        <v>240.040563751464</v>
+      </c>
+      <c r="S36">
+        <v>0.01793912435427468</v>
+      </c>
+      <c r="T36">
+        <v>0.01793912435427469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H37">
+        <v>41.740472</v>
+      </c>
+      <c r="I37">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J37">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.870155666666667</v>
+      </c>
+      <c r="N37">
+        <v>5.610467</v>
+      </c>
+      <c r="O37">
+        <v>0.036024256573886</v>
+      </c>
+      <c r="P37">
+        <v>0.03602425657388601</v>
+      </c>
+      <c r="Q37">
+        <v>26.02039341338044</v>
+      </c>
+      <c r="R37">
+        <v>234.183540720424</v>
+      </c>
+      <c r="S37">
+        <v>0.01750140723322815</v>
+      </c>
+      <c r="T37">
+        <v>0.01750140723322816</v>
       </c>
     </row>
   </sheetData>
